--- a/data/trans_dic/P2A_enfcro_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,64; 62,29</t>
+          <t>41,64; 61,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>54,51; 72,16</t>
+          <t>53,88; 71,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,85; 58,16</t>
+          <t>38,84; 57,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>99,03; 100,0</t>
+          <t>98,96; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,87; 70,24</t>
+          <t>53,67; 71,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,73; 82,34</t>
+          <t>63,99; 81,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,74; 73,8</t>
+          <t>54,32; 73,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>89,12; 97,92</t>
+          <t>88,98; 97,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,52; 62,98</t>
+          <t>50,83; 63,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61,32; 74,67</t>
+          <t>61,89; 75,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>50,02; 63,38</t>
+          <t>49,57; 62,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,86; 98,74</t>
+          <t>93,47; 98,77</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,89; 51,08</t>
+          <t>42,96; 51,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,14; 63,21</t>
+          <t>55,09; 63,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,62; 57,1</t>
+          <t>48,35; 56,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,97; 97,91</t>
+          <t>94,05; 97,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,23; 64,43</t>
+          <t>56,18; 64,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,71; 71,63</t>
+          <t>63,73; 71,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>59,94; 67,63</t>
+          <t>59,05; 67,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,23; 98,7</t>
+          <t>96,16; 98,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,89; 56,22</t>
+          <t>50,46; 56,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,51; 66,61</t>
+          <t>60,47; 66,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55,11; 60,95</t>
+          <t>55,44; 60,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>95,82; 98,02</t>
+          <t>95,67; 98,05</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,45; 51,08</t>
+          <t>44,48; 51,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,65; 57,19</t>
+          <t>50,75; 57,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,89; 53,4</t>
+          <t>47,28; 53,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>95,78; 98,48</t>
+          <t>96,22; 98,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>60,85; 66,86</t>
+          <t>60,67; 67,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,74; 73,54</t>
+          <t>67,65; 73,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>61,84; 67,53</t>
+          <t>61,5; 67,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>95,65; 97,52</t>
+          <t>95,65; 97,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,24; 58,07</t>
+          <t>53,74; 58,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>60,38; 64,65</t>
+          <t>60,18; 64,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>55,49; 59,91</t>
+          <t>55,23; 59,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>96,34; 97,8</t>
+          <t>96,36; 97,83</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,3; 51,27</t>
+          <t>43,27; 51,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,39; 53,88</t>
+          <t>46,24; 53,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44,63; 51,8</t>
+          <t>43,89; 51,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,62; 97,4</t>
+          <t>93,59; 97,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,65; 64,95</t>
+          <t>57,45; 65,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,99; 70,89</t>
+          <t>63,74; 70,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,64; 62,42</t>
+          <t>55,35; 62,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,0; 98,12</t>
+          <t>95,04; 98,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,61; 57,02</t>
+          <t>51,45; 57,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,42; 61,34</t>
+          <t>55,96; 61,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,11; 56,04</t>
+          <t>50,89; 56,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,0; 97,54</t>
+          <t>95,14; 97,44</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,4; 48,54</t>
+          <t>42,2; 48,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54,16; 60,58</t>
+          <t>53,92; 60,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,69; 57,27</t>
+          <t>50,6; 56,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>94,86; 97,44</t>
+          <t>94,98; 97,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>58,71; 64,79</t>
+          <t>58,53; 64,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,94; 70,68</t>
+          <t>65,21; 70,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>58,41; 64,49</t>
+          <t>58,44; 64,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>88,77; 95,49</t>
+          <t>88,85; 95,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,76; 56,01</t>
+          <t>51,85; 56,11</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>60,72; 65,22</t>
+          <t>60,93; 65,22</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>55,73; 60,17</t>
+          <t>55,32; 60,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>92,56; 96,07</t>
+          <t>92,26; 96,03</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>45,43; 48,88</t>
+          <t>45,35; 48,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>53,67; 57,07</t>
+          <t>53,46; 57,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49,28; 52,72</t>
+          <t>49,28; 52,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>95,95; 97,46</t>
+          <t>95,94; 97,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>60,35; 63,68</t>
+          <t>60,37; 63,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,34; 70,4</t>
+          <t>67,09; 70,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>60,57; 63,93</t>
+          <t>60,71; 64,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>94,6; 96,7</t>
+          <t>94,46; 96,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>53,39; 55,91</t>
+          <t>53,39; 55,93</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>60,88; 63,39</t>
+          <t>60,89; 63,36</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>55,74; 58,03</t>
+          <t>55,65; 58,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>95,66; 96,85</t>
+          <t>95,65; 96,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_enfcro_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,52 +656,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>51,92%</t>
+          <t>45,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>63,4%</t>
+          <t>59,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>48,32%</t>
+          <t>50,5%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>99,84%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>62,49%</t>
+          <t>59,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>73,86%</t>
+          <t>67,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>64,69%</t>
+          <t>62,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>40,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>57,14%</t>
+          <t>52,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>68,54%</t>
+          <t>63,38%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>39,74%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>41,64; 61,12</t>
+          <t>42,02; 49,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,88; 71,67</t>
+          <t>54,93; 62,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,84; 57,17</t>
+          <t>46,66; 54,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>98,96; 100,0</t>
+          <t>34,82; 43,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,67; 71,01</t>
+          <t>56,08; 63,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,99; 81,68</t>
+          <t>64,0; 71,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>54,32; 73,18</t>
+          <t>58,53; 66,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,98; 97,95</t>
+          <t>33,5; 44,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>50,83; 63,62</t>
+          <t>49,91; 55,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61,89; 75,37</t>
+          <t>60,98; 66,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,57; 62,4</t>
+          <t>53,45; 58,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,47; 98,77</t>
+          <t>35,12; 42,43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,92%</t>
+          <t>45,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>59,23%</t>
+          <t>52,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52,77%</t>
+          <t>48,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>28,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>60,25%</t>
+          <t>62,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,81%</t>
+          <t>68,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>63,46%</t>
+          <t>63,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>97,77%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>53,57%</t>
+          <t>53,81%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>63,51%</t>
+          <t>60,6%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>58,12%</t>
+          <t>56,47%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>35,32%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,96; 51,0</t>
+          <t>41,95; 48,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,09; 63,46</t>
+          <t>49,08; 55,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,35; 56,9</t>
+          <t>45,89; 52,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>94,05; 97,79</t>
+          <t>15,55; 36,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,18; 64,14</t>
+          <t>59,1; 65,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,73; 71,81</t>
+          <t>65,56; 71,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>59,05; 67,46</t>
+          <t>60,51; 66,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,16; 98,68</t>
+          <t>41,16; 46,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,46; 56,52</t>
+          <t>51,6; 56,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,47; 66,44</t>
+          <t>58,23; 62,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55,44; 60,98</t>
+          <t>54,08; 58,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>95,67; 98,05</t>
+          <t>23,79; 40,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>54,0%</t>
+          <t>48,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>50,26%</t>
+          <t>46,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>63,96%</t>
+          <t>60,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>70,7%</t>
+          <t>66,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>64,75%</t>
+          <t>58,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>48,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>55,92%</t>
+          <t>52,54%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>62,41%</t>
+          <t>57,69%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>57,58%</t>
+          <t>52,63%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>41,54%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,48; 51,4</t>
+          <t>40,76; 48,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,75; 57,37</t>
+          <t>44,81; 52,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>47,28; 53,85</t>
+          <t>42,7; 50,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>96,22; 98,52</t>
+          <t>28,34; 36,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>60,67; 67,03</t>
+          <t>56,58; 63,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,65; 73,56</t>
+          <t>62,6; 69,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>61,5; 67,55</t>
+          <t>54,57; 61,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>95,65; 97,57</t>
+          <t>33,2; 73,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,74; 58,28</t>
+          <t>49,72; 55,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>60,18; 64,44</t>
+          <t>54,91; 60,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>55,23; 59,5</t>
+          <t>49,83; 55,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>96,36; 97,83</t>
+          <t>32,26; 61,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47,32%</t>
+          <t>42,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>55,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,06%</t>
+          <t>52,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>59,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,23%</t>
+          <t>67,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>59,12%</t>
+          <t>60,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>54,28%</t>
+          <t>51,09%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>58,77%</t>
+          <t>61,76%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>53,68%</t>
+          <t>56,55%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>34,04%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,27; 51,29</t>
+          <t>38,9; 45,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,24; 53,74</t>
+          <t>52,58; 59,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,89; 51,82</t>
+          <t>49,19; 55,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,59; 97,44</t>
+          <t>28,55; 35,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,45; 65,01</t>
+          <t>56,13; 62,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,74; 70,6</t>
+          <t>63,87; 69,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,35; 62,77</t>
+          <t>57,4; 63,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,04; 98,16</t>
+          <t>28,96; 39,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,45; 57,17</t>
+          <t>48,96; 53,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55,96; 61,48</t>
+          <t>59,69; 63,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,89; 56,22</t>
+          <t>54,02; 58,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,14; 97,44</t>
+          <t>30,11; 36,41</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>45,46%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>57,34%</t>
+          <t>53,88%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>53,83%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>31,93%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>61,68%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>67,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>61,61%</t>
+          <t>61,3%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>53,96%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63,0%</t>
+          <t>60,85%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>57,93%</t>
+          <t>55,62%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>37,22%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,2; 48,78</t>
+          <t>42,75; 46,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,92; 60,54</t>
+          <t>51,99; 55,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,6; 56,92</t>
+          <t>47,85; 51,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>94,98; 97,54</t>
+          <t>24,3; 34,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>58,53; 64,82</t>
+          <t>58,68; 61,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,21; 70,98</t>
+          <t>65,86; 69,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>58,44; 64,68</t>
+          <t>59,57; 62,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>88,85; 95,63</t>
+          <t>37,99; 52,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,85; 56,11</t>
+          <t>51,31; 53,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>60,93; 65,22</t>
+          <t>59,62; 62,05</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>55,32; 60,01</t>
+          <t>54,43; 56,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>92,26; 96,03</t>
+          <t>33,5; 42,32</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>47,02%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>55,27%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>51,1%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>96,75%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>62,01%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>68,8%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>62,37%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>95,98%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>54,63%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>62,16%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>56,86%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>96,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>45,35; 48,82</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>53,46; 57,11</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>49,28; 52,77</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>95,94; 97,42</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>60,37; 63,58</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>67,09; 70,32</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>60,71; 64,02</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>94,46; 96,66</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>53,39; 55,93</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>60,89; 63,36</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>55,65; 58,0</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>95,65; 96,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P2A_enfcro_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,02; 49,54</t>
+          <t>42,07; 49,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>54,93; 62,73</t>
+          <t>55,39; 62,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,66; 54,41</t>
+          <t>46,62; 54,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,82; 43,01</t>
+          <t>34,44; 43,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,08; 63,06</t>
+          <t>56,06; 63,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,0; 71,35</t>
+          <t>63,62; 71,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>58,53; 66,07</t>
+          <t>58,22; 65,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,5; 44,77</t>
+          <t>30,73; 44,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,91; 55,25</t>
+          <t>50,09; 55,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>60,98; 66,17</t>
+          <t>60,79; 65,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53,45; 58,77</t>
+          <t>53,89; 59,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>35,12; 42,43</t>
+          <t>34,89; 42,53</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,95; 48,75</t>
+          <t>42,25; 48,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,08; 55,65</t>
+          <t>49,04; 55,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,89; 52,21</t>
+          <t>45,34; 51,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,55; 36,98</t>
+          <t>15,62; 37,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,1; 65,46</t>
+          <t>59,2; 65,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,56; 71,8</t>
+          <t>66,02; 72,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>60,51; 66,56</t>
+          <t>60,92; 66,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,16; 46,34</t>
+          <t>40,81; 46,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,6; 56,21</t>
+          <t>51,61; 56,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,23; 62,68</t>
+          <t>58,2; 62,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54,08; 58,43</t>
+          <t>54,26; 58,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,79; 40,49</t>
+          <t>23,13; 40,54</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,76; 48,94</t>
+          <t>40,84; 48,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>44,81; 52,66</t>
+          <t>44,87; 52,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,7; 50,89</t>
+          <t>43,21; 50,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,34; 36,48</t>
+          <t>27,91; 36,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,58; 63,81</t>
+          <t>56,42; 63,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,6; 69,56</t>
+          <t>62,64; 69,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>54,57; 61,97</t>
+          <t>54,51; 62,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,2; 73,24</t>
+          <t>33,13; 72,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,72; 55,32</t>
+          <t>49,79; 55,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>54,91; 60,32</t>
+          <t>55,02; 60,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>49,83; 55,14</t>
+          <t>50,15; 55,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,26; 61,23</t>
+          <t>32,42; 61,41</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,9; 45,48</t>
+          <t>39,07; 45,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,58; 59,16</t>
+          <t>52,65; 59,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,19; 55,47</t>
+          <t>49,03; 55,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,55; 35,34</t>
+          <t>28,15; 35,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,13; 62,57</t>
+          <t>56,49; 62,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,87; 69,73</t>
+          <t>64,16; 70,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,4; 63,77</t>
+          <t>57,14; 63,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,96; 39,74</t>
+          <t>29,43; 39,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,96; 53,31</t>
+          <t>48,88; 53,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,69; 63,93</t>
+          <t>59,63; 63,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>54,02; 58,65</t>
+          <t>54,36; 58,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,11; 36,41</t>
+          <t>30,02; 36,38</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,75; 46,14</t>
+          <t>42,58; 46,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,99; 55,77</t>
+          <t>52,23; 55,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,85; 51,38</t>
+          <t>47,97; 51,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,3; 34,92</t>
+          <t>25,38; 35,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>58,68; 61,95</t>
+          <t>58,74; 62,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,86; 69,11</t>
+          <t>65,95; 69,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>59,57; 62,9</t>
+          <t>59,63; 62,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,99; 52,23</t>
+          <t>38,18; 53,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,31; 53,76</t>
+          <t>51,27; 53,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>59,62; 62,05</t>
+          <t>59,7; 62,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>54,43; 56,78</t>
+          <t>54,38; 56,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>33,5; 42,32</t>
+          <t>33,68; 42,82</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con enfermedades crónicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>317706</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>415148</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>340780</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>245955</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>410346</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>472531</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>419203</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>294869</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>728052</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>887679</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>759983</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>540824</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>291993; 344265</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>389620; 441818</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>314584; 368477</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>218837; 273584</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>385870; 435260</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>443469; 497373</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>391725; 441409</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>222863; 325222</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>692446; 764398</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>851424; 924243</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>726308; 797293</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>474779; 578712</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1135</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1080</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1090</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>435634</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>531068</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>499937</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>340314</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>603068</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>711279</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>666373</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>419659</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1038702</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1242347</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1166311</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>759973</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>406340; 468230</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>499227; 564943</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>463531; 530239</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>186341; 441454</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>573297; 632124</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>681431; 743672</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>635362; 696662</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>391244; 444307</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>996155; 1086634</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1193231; 1288630</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1120671; 1213261</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>497622; 872290</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>304248</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>370036</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>356192</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>225601</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>411585</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>515366</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>456732</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>454826</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>715833</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>885402</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>812924</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>680426</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>277103; 329783</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>339934; 397702</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>328220; 384663</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>196693; 256363</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>385848; 437556</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>486857; 540365</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>427914; 487071</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>309180; 672558</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>678326; 754186</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>844434; 923144</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>774614; 854445</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>531068; 1005974</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>396214</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>529950</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>489938</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>292832</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>615771</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>704949</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>630593</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>395440</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1011986</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1234900</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1120531</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>688271</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>368121; 428598</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>499005; 562378</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>459711; 519496</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>260916; 325084</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>586696; 650672</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>674902; 736368</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>596461; 659670</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>322239; 432846</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>968234; 1060132</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1192309; 1276745</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1077153; 1166599</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>606924; 735585</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1452</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1716</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2220</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2349</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3446</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3936</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1453801</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1846202</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1686846</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1104702</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2040770</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2404125</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2172901</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1564793</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3494572</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4250328</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3859748</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2669494</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1395018; 1518207</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1789667; 1908688</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1628133; 1749665</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>878030; 1217031</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1984896; 2100982</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2346785; 2463521</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2113439; 2230684</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1417449; 1988813</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3412677; 3580049</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4170243; 4338258</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3773554; 3942718</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2415351; 3070970</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>